--- a/uploads/educativa/Plantilla_cargarcursoeducativa.xlsx
+++ b/uploads/educativa/Plantilla_cargarcursoeducativa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="483">
   <si>
     <t xml:space="preserve">ID_ASIGNATURA</t>
   </si>
@@ -93,6 +93,1446 @@
   </si>
   <si>
     <t xml:space="preserve">ASIGNATURA_ALIAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALIAS ASIGNATURAS GRADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actualidad_economica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">administracion_centros_computo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">administracion_compensaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">administracion_recursos_humanos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">administracion_ventas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">algebra_lineal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">analisis_redes_electricas_I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auditoria_calidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auditoria_sistemas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auditoria_tributaria_I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">benchmarking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculo_diferencial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calidad_total_negocios_internacionales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capacitacion_desarrollo_talento_humano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">competitividad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comportamiento_organizacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comportamiento_profesional_ambiental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comunicacion_oral_escrita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comunicacion_profesional_liderazgo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contabilidad_general</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contabilidad_I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contabilidad_II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contabilidad_III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contabilidad_IV_gubernamental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contabilidad_V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contabilidad_VI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contratacion_internacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creditos_cobranzas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derecho_I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desarrollo_aplicaciones_redes_I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desarrollo_aplicaciones_redes_II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dinamica_grupos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">econometria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">economia_internacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elaboracion_proyectos_factibilidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electromagnetismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epistemologia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">escuelas_enfoques_teoricos_psicologia_I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">escuela_enfoques_teoricos_psicologia_II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estadistica_I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estadistica_I_muestreo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estadistica_II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estadistica_aplicada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estrategia_oferta_productos_servicios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estructura_datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etica_profesional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaluacion_sistemas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finanzas_corporativas_I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finanzas_I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finanzas_II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finanzas_internacionales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finanzas_publicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fisica_I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fisica_II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fisica_III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formacion_empresarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frances_II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fundamentos_administracion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fundamentos_comercio_exterior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fundamentos_economia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fundamentos_historicos_epistemologicos_talento_humano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fundamentos_software_especializado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gerencia_recursos_humanos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gerencia_operativa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gestion_calidad_estandarizacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">herramientas_diseño_grafico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">historia_geografia_turistica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ingenieria_software_II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ingenieria_economica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">internet_herramientas_informaticas_basicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">introd_ingenieria_telecomunicaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">introduccion_turismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">investigacion_mercados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">legislacion_aplicada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">legislacon_aplicada_tic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">macroeconimia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">macroeconimia_II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marketing_I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marketing_II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marketing_industrial_servicios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matematicas_aplicadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matematicas_I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matematicas_II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medicion_evaluacion_recurso_humano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metodologia_investigacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metodos_direccion_management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metodos_investigacion_aprendizaje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">microeconomia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">microeconomia_II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monedas_instituciones_financieras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neuroanatomia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neurolingüistica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">operaciones_medios_transporte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optativa_I_circuitos_turisticos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optativa_II_circuitos_turisticos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">organizacion_contable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">organizacion_empresarial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patrimonio_turistico_universal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pedagogia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">planeacion_turistica_sostenible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">politica_economica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presupuesto_I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presupuesto_II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">procesos_psicologicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">programacion_bridges_routers_switches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">programacion_estructurada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">programacion_orientada_objetos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">programacion_internet_I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">programacion_internet_II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promocion_comunicacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">propagacion_analisis_señales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proyecto_empresarial_I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proyecto_empresarial_II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proyecto_empresarial_III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psicofisiologia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psicologia_diferencial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psicologia_educativa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psicologia_general</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psicologia_organizacional_I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psicologia_organizacional_II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psicologia_social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public_choice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">publicidad_comunicacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reclutamiento_seleccion_talento_humano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redes_acceso_I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redes_I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redes_inalambricas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reingenieria_ventas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retailing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seguridad_redes_informatica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seguridad_informatica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sistemas_lineales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sistemas_operativos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taller_I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taller_II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taller_III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tecnicas_comunicacion_oral_escrita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tecnicas_negociacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tecnicas_ventas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teoría_desarrollo_económico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tqm_standars_normative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trámites_aduaneros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tributación_I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turismo_sostenible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valoración_empresas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epistemología_contabilidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epistemología_turismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desarrollo_aplicaciones_redes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">planeación_dirección_estratégica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matemáticas_discretas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arquitectura_mantenimiento_computadoras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derecho_constitucional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marco_regulatorio_TICS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prácticas_preprofesionales_I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interculturalidad_culturas_ancestrales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">legislación_aduanera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chartering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">empresas_multinacionales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">software_aplicado_finanzas_contabilidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">administración_servicios_A&amp;B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">laboratorio_sistemas_operativos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contabilidad_gerencial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marketing_turístico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">escuela_enfoques_teóricos_psicología_aplicada_TH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matemáticas_financiera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cultura_organizacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tributación_II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finanzas_corporativas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">higiene_seguridad_laboral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bloques_económicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fusiones_adquisiciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaluación_psicológica_II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logística_canales_distribución</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normas_valoración</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contabilidad_avanzada_II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">programación_visual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promoción_RR.PP_comunicación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">legislación_derecho_aduanero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auditoria_tributaria_II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derecho_laboral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">francés_IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inglés_técnico_II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medios_sistemas_transmisión</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gestión_abastecimiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contabilidad_avanzada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distribución_física_internacional_I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modelos_decisión</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaluación_psicológica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emprendimiento_innovación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">herramientas_informática_portuaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">control_interno_I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epistemología_administración</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presupuestos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fundamentos_mercadotecnia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sociología_talento_humano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ética_responsabilidad_social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fundamentos_programacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">investigación_operaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finanzas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auditoría_I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comunicaciones_digitales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diseño_sistemas_electrónicos_digitales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seguros_costos_transporte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tecnología_carga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">administración_financiera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comunicaciones_analógicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tecnología_medio_transporte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epistemología_comercio_exterior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redes_datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psicometría</t>
+  </si>
+  <si>
+    <t xml:space="preserve">organización_marítima_Intl_sistemas.P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desarrollo_portuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formulación_evaluación_proyectos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gestión_talento_humano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negocios_internacionales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derecho_financiero_tributario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comportamiento_consumidor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geografía_turística</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marketing_estratégico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">legislación_turistica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desarrollo_organizacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">francés_I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">francés_III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lógica_programación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matematicas_tic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">introducción_informática</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inglés_I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bases_datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matemáticas_III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inglés_II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fundamentos_redes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inglés_III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ingeniería_software_I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inglés_IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taller_derechos_humanos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pasantia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taller_responsabilidad_social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inglés_V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elab_eval_proy_factibilidad(4C)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diseño_redes_computadores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">administración_redes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inglés_VI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redes_II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">física</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electricidad_I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">digitales_I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electronica_I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">digitales_II_proyecto_digitales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electronica_II_proyecto_electronica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proyecto_electronica_digitales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teoria_telecomunicaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fuentes_energia_telecomunicaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conmutacion_circuitos_paquetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">planta_externa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sistemas_transmision_radio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comunicaciones_satelitales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sistema_transmision_SHD_cable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redes_acceso_ll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">servicio_telefonia_celular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">telefonia_ip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bases_culinarias_teoria_gastronomica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asistencia_guia_grupos_turistico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preparacion_alimentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psicología_turismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proyeccion_economica_turismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pasteleria_reposteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cocteleria_bebidas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">legislacion_turistica_ambiental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agencia_viajes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prefact_proyectos_turisticos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gestion_ambiental_para_empresas_turisticas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seguridad_turistica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ecologia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agencia_viajes_ll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">direccion_ejecutiva_ama_llaves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transportacion_turistica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">procesos_Cert.Am_para_empresas_turisticas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desarrollo_productos_turisticos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">planificacion_eventos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">animacion_recreacion_turistica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desarrollo_infraestructura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gestion_alojamiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">administracion_empresas_turisticas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercadeo_directo_telemercadeo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marketing_financiero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gerencia_ventas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">planificacion_financiera_corto_plazo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auditoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">administracion_control_riesgos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">software_aplicado_finanzas_contabilidad_l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contabilidad_avanzada_l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finanzas_corporativas_ll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normativa_intercambio_comercial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transporte_internacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nomenclatura_arancelaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distribucion_fisica_internacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creditos_documentarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gestión_ambiental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">puertos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ingles_tecnico_l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">operaciones_portuarias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulacion_modos_transporte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fundamentos_historicos_espistemologicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fundamentos_biologicos_psicologia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">antropologia_cultural_Ecuatoriana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estadisticas_aplicadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neuropsicologia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estadística_aplicada_ll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psicologia_desarrollo _l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">economia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psicopatologia_general</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaluacion_psicologia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conduccion_grupos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fundamentos_diseño</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desarrollo_web_l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desarrollo_multimedia_l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desarrollo_web_ll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desarrollo_multimedia_ll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interaccion_hombre_maquina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configuración_programación_redes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logística_transporte_internacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">historia_Ecuador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interculturalidad_culturas_ancestrales_genero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desarrollo_infraestructura_turistica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patrimonio_universal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epistemologia_economia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epistemologia_finanzas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integracion_cadenas_productivas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gestion_calidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modelacion_escenarios_económicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contabilidad_costo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comercio_electronico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marketing_internacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gerencia_de_marketing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">econometria_I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">econometria_II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">historia_econom_ecuador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">respomabiliad_social_empresarial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tributacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">economia_ambiental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derecho_economico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teoria_monetaria_inter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">practicas_pre_profe_II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">politica_economica_fiscal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">introduccion_trabajo_titulacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lider_habilidad_gerencial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">practicas_pre_profesi_vincula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modelos_econometricos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trabajo_titulo_I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trabajo_titulo_II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fundamento_software_aplica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">practicas_pre_profesi_vincula_I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derecho_mercantil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gerencia_financiera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auditoria_tributaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">practicas_pre_profesi_vincula_II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adm_riesgo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derecho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soiologia_turismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">practicas_pre_profesional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patrimonio_natural_ecuador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asistencia_grupos_turistico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gestion_hotelera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agencia_viaje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eventos_convencion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tendencia_opera_turistica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tecnica_opera_turistica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tecnica_culinaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gastronomia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">planeacion_estrategica_sostenible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transporte_turistico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conta_costo_I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conta_costo_II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gestion_talento_humano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auditoria_financiera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contabilidad_superior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gestion_practica_tributaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gestion_costos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contabilidad_superior_II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">responsabilidad_social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auditoria_ambiental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contabilidad_gubernamental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contabilidad_especiales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auditoria_forense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gestion_cadena_suministros_csm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gerencia_produccion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simulacion_negocio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elaboracion_evalua_proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sistema_informa_gerencial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desarrollo_admin_neo_proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercado_valores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marco_legal_mercado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plan_marketing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marketing_digital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">politica_precio_producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logistica_distribucion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">publicidad_promocion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marketing_servicios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relacion_publica_marketing_directo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creatividad_innova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin_sueldos_compensa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psicologia_aplicada_talento_humano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diagnostivo_organizacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nomina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psicologia_desarrollo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seguridad_salud_ocupa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diseño_evalua_puestos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dinamica_grupos_trabajo_equipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gestion_competencias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auditoria_gestion_talento_humano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">programa_neuro_pnl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gestion_conflictos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derecho_internacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">investigacion_mercados_internacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valoracion_aduanera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oferta_exportable_ecuador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merceologia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distribucion_fisica_interna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diplomacia_internacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negociacion_internacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">norma_internacional_calidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sistema_aduaneros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quimica_general</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epistemologia_ciencias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculo_integral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculo_varias_variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mecanica_general</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estadistica_sistema_lineales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transporte_terrestre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">laboratorio_electronica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metodologia_investigacion_cientifica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sistema_transporte_multi_inter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gestion_medios_transporte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seguridad_redes_sist_logistica_transporte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logistica_mantenimiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liderazgo_habilidad_negocio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gestion_proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gestion_vial_concesiones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">practicas_pre_profesional_III_vincula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seguridad_transporte_logistica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transporte_maritimo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logistica_flujos_interna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derecho_interna_transporte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estadistica_matematica_I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fundamentos_marketing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estadistica_matematicas_II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base_datos_I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base_datos_II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">programa_dispositivos_moviles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inteligencia_artificial_I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redes_datos_I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simulacion_valida_sistema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inteligencia_artificial_II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diseño_admin_redes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desarrollo_app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aplica_tecnologia_web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auditoria_informatica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tecnologia_educacion_virtual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gestion_proyecto_tecnologico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sistema_informa_geografica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marco_regula_telecomunica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teoria_electromagnetica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">procesos_estocasticos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electronica_II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sistemas_digitales_II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infraestructura_tecnologia_data_center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">antenas_propagacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">empradimiento_inovacion_tecnologia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seguridad_redes_sistemas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comunicaciones_inalambricas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gestion_comercio_electronico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">television_digital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">laboratorio_telecomunicaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comunicaciones_opticas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diseño_grafio_publicitario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epistermologia_mercadotecnia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anatomia_histologia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redes_comunicaciones_moviles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bromatologia_I_ciencia_alimentos</t>
   </si>
 </sst>
 </file>
@@ -204,7 +1644,7 @@
   </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -244,17 +1684,2419 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A480"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="10.53"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="0" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="0" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="0" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="0" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="0" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="0" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="0" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="0" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="0" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="0" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="0" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="0" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="0" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="0" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="0" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="0" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="0" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="0" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="0" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="0" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="0" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="0" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="0" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="0" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="0" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="0" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="0" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="0" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="0" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="0" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="0" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="0" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="0" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="0" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="0" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="0" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="0" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="0" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="0" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="0" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="0" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="0" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="0" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="0" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="0" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="0" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="0" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="0" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="0" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="0" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="0" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="0" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="0" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="0" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="0" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="0" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="0" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="0" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="0" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="0" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="0" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="0" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="0" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="0" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="0" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="0" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="0" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="0" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="0" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="0" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="0" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="0" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="0" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="0" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="0" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="0" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="0" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="0" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="0" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="0" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="0" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="0" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="0" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="0" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="0" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="0" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="0" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="0" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="0" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="0" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="0" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="0" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="0" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="0" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="0" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="0" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="0" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="0" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="0" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="0" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="0" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="0" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="0" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="0" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="0" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="0" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="0" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="0" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="0" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="0" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="0" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="0" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="0" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="0" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="0" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="0" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="0" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="0" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="0" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="0" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="0" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="0" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="0" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="0" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="0" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="0" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="0" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="0" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="0" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="0" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="0" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="0" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="0" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="0" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="0" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="0" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="0" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="0" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="0" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="0" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="0" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="0" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="0" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="0" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="0" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="0" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="0" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="0" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="0" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="0" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="0" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="0" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="0" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="0" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="0" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="0" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="0" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="0" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="0" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="0" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A444" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="0" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="0" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A447" s="0" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A448" s="0" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="0" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A450" s="0" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A451" s="0" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A452" s="0" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A453" s="0" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A454" s="0" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A455" s="0" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A456" s="0" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A457" s="0" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="0" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="0" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="0" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A461" s="0" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A462" s="0" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A464" s="0" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="0" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="0" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A467" s="0" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="0" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="0" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="0" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="0" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="0" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="0" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="0" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="0" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="0" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="0" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="0" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="0" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="0" t="s">
+        <v>482</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/uploads/educativa/Plantilla_cargarcursoeducativa.xlsx
+++ b/uploads/educativa/Plantilla_cargarcursoeducativa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
@@ -1539,8 +1539,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -1616,12 +1617,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1644,26 +1653,26 @@
   </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="B:C"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="10.53"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1686,8 +1695,8 @@
   </sheetPr>
   <dimension ref="A1:A480"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B:C A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1697,7 +1706,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
